--- a/storage/table_de_decryptage/Table_de_decryptage_Initiale.xlsx
+++ b/storage/table_de_decryptage/Table_de_decryptage_Initiale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC93819-15C9-4F7D-8336-00B8DC006202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B08D0C-1E5E-4BEE-A22C-4CDB27808FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>a</t>
   </si>
@@ -224,9 +224,6 @@
     <t>#</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -285,6 +282,12 @@
   </si>
   <si>
     <t>Correspondance</t>
+  </si>
+  <si>
+    <t>Table de décrypatge</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -321,26 +324,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -350,8 +337,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -360,8 +349,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -370,14 +361,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -386,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -394,6 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,622 +734,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J1:K101"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J2" s="5" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J4" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="3">
         <v>6</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="3">
         <v>7</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="3">
         <v>8</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="3">
         <v>9</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J14" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J15" s="1" t="s">
+      <c r="C16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J16" s="1" t="s">
+      <c r="C17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J17" s="1" t="s">
+      <c r="C18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J18" s="1" t="s">
+      <c r="C19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J19" s="1" t="s">
+      <c r="C20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J20" s="1" t="s">
+      <c r="C21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J21" s="1" t="s">
+      <c r="C22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J22" s="1" t="s">
+      <c r="C23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J23" s="1" t="s">
+      <c r="C24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J24" s="1" t="s">
+      <c r="C25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J25" s="1" t="s">
+      <c r="C26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J26" s="1" t="s">
+      <c r="C27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="1" t="s">
+      <c r="C28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="H28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J28" s="1" t="s">
+      <c r="C29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J29" s="1" t="s">
+      <c r="C30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J30" s="1" t="s">
+      <c r="C31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="H31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="10:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="1" t="s">
+      <c r="C32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="H32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J32" s="1" t="s">
+      <c r="C33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J33" s="1" t="s">
+      <c r="C34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J34" s="1" t="s">
+      <c r="C35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="H35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J35" s="1" t="s">
+      <c r="C36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J68" s="1">
+      <c r="C37" s="6"/>
+      <c r="E37" s="5">
         <v>0</v>
       </c>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J70" s="1">
-        <v>2</v>
-      </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J71" s="1">
-        <v>3</v>
-      </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J72" s="1">
-        <v>4</v>
-      </c>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J73" s="1">
-        <v>5</v>
-      </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J74" s="1">
-        <v>6</v>
-      </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J75" s="1">
-        <v>7</v>
-      </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J76" s="1">
-        <v>8</v>
-      </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J77" s="1">
-        <v>9</v>
-      </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J85" s="1" t="s">
+      <c r="F37" s="6"/>
+      <c r="H37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J87" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J88" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J90" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J93" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J95" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J96" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J98" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="10:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J100" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="10:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J101" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K101" s="4"/>
+      <c r="I37" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/table_de_decryptage/Table_de_decryptage_Initiale.xlsx
+++ b/storage/table_de_decryptage/Table_de_decryptage_Initiale.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B08D0C-1E5E-4BEE-A22C-4CDB27808FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C0B08D0C-1E5E-4BEE-A22C-4CDB27808FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0059121E-6B6E-443D-8D79-02F8F8A329D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>a</t>
   </si>
@@ -278,16 +289,16 @@
     <t>+</t>
   </si>
   <si>
-    <t>Valeur</t>
+    <t>Table de décrypatge</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Clé</t>
   </si>
   <si>
     <t>Correspondance</t>
-  </si>
-  <si>
-    <t>Table de décrypatge</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -736,51 +747,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.15234375" customWidth="1"/>
+    <col min="2" max="2" width="4.9765625" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.70703125" customWidth="1"/>
+    <col min="6" max="6" width="13.98828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.9765625" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.98828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.82421875" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -794,7 +809,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -808,7 +823,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -822,7 +837,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,7 +851,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,7 +865,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -864,7 +879,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -878,7 +893,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -892,7 +907,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -906,7 +921,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,7 +935,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -934,7 +949,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -948,7 +963,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -962,7 +977,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
@@ -972,11 +987,11 @@
       </c>
       <c r="F18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -990,7 +1005,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1019,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1033,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1047,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1061,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1060,7 +1075,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1074,7 +1089,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1103,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1102,7 +1117,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1131,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1145,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1159,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1173,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1172,7 +1187,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1201,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1215,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1229,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1243,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
